--- a/biology/Botanique/Khatouat/Khatouat.xlsx
+++ b/biology/Botanique/Khatouat/Khatouat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site du Khatouat est un massif forestier protégé, un SIBE (Site d'Intérêt Biologique et Écologique n° 39) du domaine continental (zone terrestre) situé au Maroc.
 </t>
@@ -511,9 +523,11 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La province administrative est celle de Settat, Khouribga[1]. Le centre administratif proche est Ez-Zhiliga. Sur le plan forestier, c'est le massif de Ben Ahmed, Oued-Zem et la région biogéographique no 8 (ZAER). Le massif occupe une superficie estimé à 5 000 ha avec un système foncier de domaine forestier délimité.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La province administrative est celle de Settat, Khouribga. Le centre administratif proche est Ez-Zhiliga. Sur le plan forestier, c'est le massif de Ben Ahmed, Oued-Zem et la région biogéographique no 8 (ZAER). Le massif occupe une superficie estimé à 5 000 ha avec un système foncier de domaine forestier délimité.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Géologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des formations gréseuses et schisteuses de l'ère primaire, formant des reliefs de collines et vallées non encaissées avec des versants de pente douce.[réf. nécessaire]
 </t>
@@ -573,9 +589,11 @@
           <t>Flore et végétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La végétation comprend des formations arborescentes à Thuyas de Berbérie (ou Cyprès marocains), à chênes verts et chênes lièges[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La végétation comprend des formations arborescentes à Thuyas de Berbérie (ou Cyprès marocains), à chênes verts et chênes lièges.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mammifères, oiseaux, reptiles : certaines espèces sont rares ou endémiques, présentes dans ce massif.[réf. nécessaire]
 </t>
@@ -637,12 +657,87 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tetraclinaie
-Formation à Tetraclinis (Callitris) articulata (cyprès marocain) dégradée, ne se régénérant pas.[réf. nécessaire]
-Chênaie verte
-ormation à Quercus ilex (chêne vert) : dégradée en basse altitude, moyennement conservée plus haut, ne se régénérant pas.[réf. nécessaire]
-Subéraie
-Formation à Quercus suber (chêne liège) : moyennement dégradée en basse altitude, mieux conservée en altitude.[réf. nécessaire]
+          <t>Tetraclinaie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formation à Tetraclinis (Callitris) articulata (cyprès marocain) dégradée, ne se régénérant pas.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Khatouat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Khatouat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écosystèmes et milieux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chênaie verte</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ormation à Quercus ilex (chêne vert) : dégradée en basse altitude, moyennement conservée plus haut, ne se régénérant pas.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Khatouat</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Khatouat</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écosystèmes et milieux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Subéraie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Formation à Quercus suber (chêne liège) : moyennement dégradée en basse altitude, mieux conservée en altitude.[réf. nécessaire]
 </t>
         </is>
       </c>
